--- a/data/template_portfolio_v3.xlsx
+++ b/data/template_portfolio_v3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ALEXIS\PycharmProjects\Crypto_portfolio\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA305238-DDF2-409B-8AC9-C4944BCC1668}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CA01606-848E-4B31-9F69-26B841E81FBD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -683,8 +683,8 @@
   <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozenSplit"/>
-      <selection pane="topRight" activeCell="C7" sqref="C7"/>
+      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozenSplit"/>
+      <selection pane="topRight" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -695,9 +695,9 @@
     <col min="4" max="4" width="31.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="30.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30.140625" customWidth="1"/>
-    <col min="8" max="8" width="36.28515625" customWidth="1"/>
-    <col min="9" max="9" width="36.85546875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="36.28515625" customWidth="1"/>
+    <col min="8" max="8" width="36.85546875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="30.140625" customWidth="1"/>
     <col min="10" max="11" width="19" customWidth="1"/>
     <col min="12" max="12" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.140625" bestFit="1" customWidth="1"/>
@@ -723,13 +723,13 @@
         <v>36</v>
       </c>
       <c r="G1" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="15" t="s">
         <v>37</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" s="15" t="s">
-        <v>26</v>
       </c>
       <c r="J1" s="15" t="s">
         <v>10</v>
@@ -749,7 +749,7 @@
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1306,7 +1306,7 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
